--- a/Test_Project_MIS.xlsx
+++ b/Test_Project_MIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raishaa/Downloads/testcaseprioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC0CFB2-E05C-9F4B-8DF4-71A1D0324862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F244B10-9B44-144E-978A-D1FE3D517BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,24 +39,32 @@
     <author>Raisha Najma Amalia</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F3BA4DC8-0F43-BF48-A67B-876172EA1529}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{567DDFAC-F5FE-BA4D-B5D3-4D80FD7137E1}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Raisha Najma Amalia:</t>
+          <t>c:</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> could have, w: would have -&gt; 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -68,7 +76,49 @@
             <rFont val="Aptos Narrow"/>
             <scheme val="minor"/>
           </rPr>
-          <t>C: Complex, M: Medium, S: Simple</t>
+          <t>s: should have -&gt; 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>m: must have -&gt; 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5584926C-89C2-644D-AC07-7CD616468149}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the greater number of functionalities a system has, the more complex the system is</t>
         </r>
       </text>
     </comment>
@@ -4154,7 +4204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4303,13 +4353,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -4686,7 +4729,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5065,7 +5108,7 @@
   <dimension ref="A1:J1315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48482,8 +48525,8 @@
   </sheetPr>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Test_Project_MIS.xlsx
+++ b/Test_Project_MIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raishaa/Downloads/testcaseprioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F244B10-9B44-144E-978A-D1FE3D517BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74839B2-E46F-E04A-A67B-62815512F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Project_MIS" sheetId="1" r:id="rId1"/>
@@ -5108,7 +5108,7 @@
   <dimension ref="A1:J1315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Test_Project_MIS.xlsx
+++ b/Test_Project_MIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raishaa/Downloads/testcaseprioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74839B2-E46F-E04A-A67B-62815512F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC01371-5F6D-314B-A6D7-5798E623D855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Project_MIS" sheetId="1" r:id="rId1"/>
@@ -46,27 +46,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>c:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> could have, w: would have -&gt; 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">c: could have, w: would have -&gt; 3
 </t>
         </r>
         <r>
@@ -74,18 +55,8 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>s: should have -&gt; 2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">s: should have -&gt; 2
 </t>
         </r>
         <r>
@@ -93,19 +64,62 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>m: must have -&gt; 1</t>
+          <t xml:space="preserve">m: must have -&gt; 1
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DDE39A48-8CB3-9149-8FD7-BC513BC6304B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Raisha Najma Amalia:</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Aptos Narrow"/>
-            <scheme val="minor"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 most important
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 not too important
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3 least important</t>
         </r>
       </text>
     </comment>
@@ -4204,7 +4218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4369,7 +4383,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -5108,7 +5128,7 @@
   <dimension ref="A1:J1315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48525,7 +48545,7 @@
   </sheetPr>
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>

--- a/Test_Project_MIS.xlsx
+++ b/Test_Project_MIS.xlsx
@@ -8,42 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raishaa/Downloads/testcaseprioritization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549E10C-D74B-4F40-B8AA-22CE1548307A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA732B5-ADF5-6741-8ACB-1EFA46B1D8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Project_MIS" sheetId="1" r:id="rId1"/>
-    <sheet name="NOTES" sheetId="2" r:id="rId2"/>
-    <sheet name="RESULT" sheetId="4" r:id="rId3"/>
+    <sheet name="RESULT" sheetId="4" r:id="rId2"/>
+    <sheet name="NOTES" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">RESULT!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">RESULT!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">RESULT!$A$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">RESULT!$A$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">RESULT!$B$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">RESULT!$B$2:$C$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">RESULT!$B$3:$C$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">RESULT!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">RESULT!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">RESULT!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">RESULT!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">RESULT!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">RESULT!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">RESULT!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">RESULT!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">RESULT!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">RESULT!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">RESULT!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">RESULT!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">RESULT!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">RESULT!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">RESULT!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">RESULT!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">RESULT!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">RESULT!$C$2:$C$3</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7306,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1315"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45743,7 +45716,7 @@
     </row>
     <row r="1282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1282" t="str">
-        <f t="shared" ref="A1282:A1345" si="20">_xlfn.CONCAT("TC_", B1282)</f>
+        <f t="shared" ref="A1282:A1315" si="20">_xlfn.CONCAT("TC_", B1282)</f>
         <v>TC_1281</v>
       </c>
       <c r="B1282">
@@ -46768,6 +46741,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EECBF28-E27D-D540-A87E-810809EF7FAE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2">
+        <v>67.13</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(Test_Project_MIS!H2:'Test_Project_MIS'!H416)</f>
+        <v>71.37469879518072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B3">
+        <v>27877.5</v>
+      </c>
+      <c r="C3">
+        <f>SUM(Test_Project_MIS!H2:'Test_Project_MIS'!H416)</f>
+        <v>29620.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -46974,56 +46999,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EECBF28-E27D-D540-A87E-810809EF7FAE}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B2">
-        <v>67.13</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(Test_Project_MIS!H2:'Test_Project_MIS'!H416)</f>
-        <v>71.37469879518072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B3">
-        <v>27877.5</v>
-      </c>
-      <c r="C3">
-        <f>SUM(Test_Project_MIS!H2:'Test_Project_MIS'!H416)</f>
-        <v>29620.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>